--- a/Acervos Janeiro e fevereiro de 2021 - 1º Grau.xlsx
+++ b/Acervos Janeiro e fevereiro de 2021 - 1º Grau.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatima\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99d2b5f2c1860f7d/Documentos/PRODUTIVIDADE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54EF2DB4-9250-4CAF-9FC4-71B632E37C87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{54EF2DB4-9250-4CAF-9FC4-71B632E37C87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{55DE36C8-5A06-4DD9-8482-BDD664A404CE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{5418E676-3F12-4F39-86DA-3564FB697F38}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5418E676-3F12-4F39-86DA-3564FB697F38}"/>
   </bookViews>
   <sheets>
     <sheet name="Acervo - Janeiro e Fevereiro 20" sheetId="2" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">'Acervo - Janeiro e Fevereiro 20'!$A$1:$F$446</definedName>
+    <definedName name="DadosExternos_1" localSheetId="0" hidden="1">'Acervo - Janeiro e Fevereiro 20'!$A$1:$F$447</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="229">
   <si>
     <t>mes</t>
   </si>
@@ -818,8 +818,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52D6D440-C0A1-4EDB-996A-9FB961A5E11E}" name="Acervo___Janeiro_e_Fevereiro_2021" displayName="Acervo___Janeiro_e_Fevereiro_2021" ref="A1:F446" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F446" xr:uid="{B1FDFCB6-8DCA-4503-A82D-F3CBD671077A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52D6D440-C0A1-4EDB-996A-9FB961A5E11E}" name="Acervo___Janeiro_e_Fevereiro_2021" displayName="Acervo___Janeiro_e_Fevereiro_2021" ref="A1:F447" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F447" xr:uid="{B1FDFCB6-8DCA-4503-A82D-F3CBD671077A}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="MOSSORÓ - JUIZADO DE VIOLÊNCIA DOMÉSTICA E FAMILIAR CONTRA A MULHER"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9578EE2F-B419-4D0A-8271-3324B5A8C52E}" uniqueName="1" name="mes" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{6E388BFA-7E69-418C-B610-E784D48A24A5}" uniqueName="2" name="UNIDADE" queryTableFieldId="2" dataDxfId="2"/>
@@ -1129,9 +1135,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F7A559-DDF2-4EF9-AF7A-D69EC408705A}">
-  <dimension ref="A1:F446"/>
+  <dimension ref="A1:F447"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F172" sqref="F172"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1162,7 +1170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1182,7 +1190,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1202,7 +1210,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1222,7 +1230,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1242,7 +1250,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1262,7 +1270,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1282,7 +1290,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1302,7 +1310,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1322,7 +1330,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1342,7 +1350,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1362,7 +1370,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1382,7 +1390,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1402,7 +1410,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1422,7 +1430,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1442,7 +1450,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1462,7 +1470,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1482,7 +1490,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1502,7 +1510,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1522,7 +1530,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1542,7 +1550,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1562,7 +1570,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1582,7 +1590,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1602,7 +1610,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -1622,7 +1630,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1642,7 +1650,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1662,7 +1670,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1682,7 +1690,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1702,7 +1710,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -1722,7 +1730,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1742,7 +1750,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -1762,7 +1770,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1782,7 +1790,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1802,7 +1810,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -1822,7 +1830,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1842,7 +1850,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1862,7 +1870,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -1882,7 +1890,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -1902,7 +1910,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1922,7 +1930,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -1942,7 +1950,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1962,7 +1970,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -1982,7 +1990,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -2002,7 +2010,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -2022,7 +2030,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -2042,7 +2050,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -2062,7 +2070,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -2082,7 +2090,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -2102,7 +2110,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -2122,7 +2130,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -2142,7 +2150,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -2162,7 +2170,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -2182,7 +2190,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -2202,7 +2210,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -2222,7 +2230,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -2242,7 +2250,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -2262,7 +2270,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -2282,7 +2290,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -2302,7 +2310,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -2322,7 +2330,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -2342,7 +2350,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -2362,7 +2370,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -2382,7 +2390,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -2402,7 +2410,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -2422,7 +2430,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -2442,7 +2450,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -2462,7 +2470,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -2482,7 +2490,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -2502,7 +2510,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -2522,7 +2530,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -2542,7 +2550,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -2562,7 +2570,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -2582,7 +2590,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -2602,7 +2610,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -2622,7 +2630,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -2642,7 +2650,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -2662,7 +2670,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -2682,7 +2690,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -2702,7 +2710,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -2722,7 +2730,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -2742,7 +2750,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -2762,7 +2770,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -2782,7 +2790,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -2802,7 +2810,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -2822,7 +2830,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -2842,7 +2850,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -2862,7 +2870,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -2882,7 +2890,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -2902,7 +2910,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -2922,7 +2930,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -2942,7 +2950,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -2962,7 +2970,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -2982,7 +2990,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -3002,7 +3010,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -3022,7 +3030,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -3042,7 +3050,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -3062,7 +3070,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -3082,7 +3090,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
@@ -3102,7 +3110,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
@@ -3122,7 +3130,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>6</v>
       </c>
@@ -3142,7 +3150,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
@@ -3162,7 +3170,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>6</v>
       </c>
@@ -3182,7 +3190,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
@@ -3202,7 +3210,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
@@ -3222,7 +3230,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
@@ -3242,7 +3250,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
@@ -3262,7 +3270,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>6</v>
       </c>
@@ -3282,7 +3290,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>6</v>
       </c>
@@ -3302,7 +3310,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>6</v>
       </c>
@@ -3322,7 +3330,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>6</v>
       </c>
@@ -3342,7 +3350,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
@@ -3362,7 +3370,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
@@ -3382,7 +3390,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>6</v>
       </c>
@@ -3402,7 +3410,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
@@ -3422,7 +3430,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>6</v>
       </c>
@@ -3442,7 +3450,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>6</v>
       </c>
@@ -3462,7 +3470,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>6</v>
       </c>
@@ -3482,7 +3490,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
@@ -3502,7 +3510,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>6</v>
       </c>
@@ -3522,7 +3530,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
@@ -3542,7 +3550,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
@@ -3562,7 +3570,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>6</v>
       </c>
@@ -3582,7 +3590,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>6</v>
       </c>
@@ -3602,7 +3610,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>6</v>
       </c>
@@ -3622,7 +3630,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>6</v>
       </c>
@@ -3642,7 +3650,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>6</v>
       </c>
@@ -3662,7 +3670,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -3682,7 +3690,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>6</v>
       </c>
@@ -3702,7 +3710,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>6</v>
       </c>
@@ -3722,7 +3730,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>6</v>
       </c>
@@ -3742,7 +3750,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
@@ -3762,7 +3770,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>6</v>
       </c>
@@ -3782,7 +3790,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>6</v>
       </c>
@@ -3802,7 +3810,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>6</v>
       </c>
@@ -3822,7 +3830,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>6</v>
       </c>
@@ -3842,7 +3850,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>6</v>
       </c>
@@ -3862,7 +3870,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
@@ -3882,7 +3890,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>6</v>
       </c>
@@ -3902,7 +3910,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>6</v>
       </c>
@@ -3922,7 +3930,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>6</v>
       </c>
@@ -3942,7 +3950,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>6</v>
       </c>
@@ -3962,7 +3970,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>6</v>
       </c>
@@ -3982,7 +3990,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>6</v>
       </c>
@@ -4002,7 +4010,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>6</v>
       </c>
@@ -4022,7 +4030,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>6</v>
       </c>
@@ -4042,7 +4050,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>6</v>
       </c>
@@ -4062,7 +4070,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>6</v>
       </c>
@@ -4082,7 +4090,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>6</v>
       </c>
@@ -4102,7 +4110,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
@@ -4122,7 +4130,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>6</v>
       </c>
@@ -4142,7 +4150,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>6</v>
       </c>
@@ -4162,7 +4170,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>6</v>
       </c>
@@ -4182,7 +4190,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>6</v>
       </c>
@@ -4202,7 +4210,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>6</v>
       </c>
@@ -4222,7 +4230,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>6</v>
       </c>
@@ -4242,7 +4250,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>6</v>
       </c>
@@ -4262,7 +4270,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>6</v>
       </c>
@@ -4282,7 +4290,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
@@ -4302,7 +4310,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>6</v>
       </c>
@@ -4322,7 +4330,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>6</v>
       </c>
@@ -4342,7 +4350,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>6</v>
       </c>
@@ -4362,7 +4370,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>6</v>
       </c>
@@ -4382,7 +4390,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>6</v>
       </c>
@@ -4402,7 +4410,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>6</v>
       </c>
@@ -4422,7 +4430,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>6</v>
       </c>
@@ -4442,7 +4450,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>6</v>
       </c>
@@ -4462,7 +4470,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>6</v>
       </c>
@@ -4482,7 +4490,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>6</v>
       </c>
@@ -4502,7 +4510,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>6</v>
       </c>
@@ -4522,7 +4530,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>6</v>
       </c>
@@ -4542,7 +4550,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>6</v>
       </c>
@@ -4562,7 +4570,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>6</v>
       </c>
@@ -4582,7 +4590,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -4607,930 +4615,930 @@
         <v>6</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="D174">
         <v>21</v>
       </c>
       <c r="E174">
-        <v>2442</v>
+        <v>2244</v>
       </c>
       <c r="F174" s="2">
-        <v>44226.988738425927</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D175">
         <v>21</v>
       </c>
       <c r="E175">
-        <v>3298</v>
+        <v>2442</v>
       </c>
       <c r="F175" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D176">
         <v>21</v>
       </c>
       <c r="E176">
-        <v>2722</v>
+        <v>3298</v>
       </c>
       <c r="F176" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D177">
         <v>21</v>
       </c>
       <c r="E177">
+        <v>2722</v>
+      </c>
+      <c r="F177" s="2">
+        <v>44226.988738425927</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D178">
+        <v>21</v>
+      </c>
+      <c r="E178">
         <v>2916</v>
       </c>
-      <c r="F177" s="2">
-        <v>44226.988738425927</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B178" s="1" t="s">
+      <c r="F178" s="2">
+        <v>44226.988738425927</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D178">
-        <v>22</v>
-      </c>
-      <c r="E178">
-        <v>3596</v>
-      </c>
-      <c r="F178" s="2">
-        <v>44226.988738425927</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="D179">
         <v>22</v>
       </c>
       <c r="E179">
-        <v>4158</v>
+        <v>3596</v>
       </c>
       <c r="F179" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D180">
         <v>22</v>
       </c>
       <c r="E180">
-        <v>4589</v>
+        <v>4158</v>
       </c>
       <c r="F180" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D181">
         <v>22</v>
       </c>
       <c r="E181">
+        <v>4589</v>
+      </c>
+      <c r="F181" s="2">
+        <v>44226.988738425927</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D182">
+        <v>22</v>
+      </c>
+      <c r="E182">
         <v>6366</v>
       </c>
-      <c r="F181" s="2">
-        <v>44226.988738425927</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B182" s="1" t="s">
+      <c r="F182" s="2">
+        <v>44226.988738425927</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D182">
-        <v>23</v>
-      </c>
-      <c r="E182">
-        <v>5161</v>
-      </c>
-      <c r="F182" s="2">
-        <v>44226.988738425927</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="D183">
         <v>23</v>
       </c>
       <c r="E183">
-        <v>6218</v>
+        <v>5161</v>
       </c>
       <c r="F183" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D184">
         <v>23</v>
       </c>
       <c r="E184">
-        <v>7056</v>
+        <v>6218</v>
       </c>
       <c r="F184" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D185">
         <v>23</v>
       </c>
       <c r="E185">
-        <v>7642</v>
+        <v>7056</v>
       </c>
       <c r="F185" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D186">
         <v>23</v>
       </c>
       <c r="E186">
-        <v>7505</v>
+        <v>7642</v>
       </c>
       <c r="F186" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D187">
         <v>23</v>
       </c>
       <c r="E187">
+        <v>7505</v>
+      </c>
+      <c r="F187" s="2">
+        <v>44226.988738425927</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D188">
+        <v>23</v>
+      </c>
+      <c r="E188">
         <v>5419</v>
       </c>
-      <c r="F187" s="2">
-        <v>44226.988738425927</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B188" s="1" t="s">
+      <c r="F188" s="2">
+        <v>44226.988738425927</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D188">
-        <v>24</v>
-      </c>
-      <c r="E188">
-        <v>1194</v>
-      </c>
-      <c r="F188" s="2">
-        <v>44226.988738425927</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="D189">
         <v>24</v>
       </c>
       <c r="E189">
-        <v>772</v>
+        <v>1194</v>
       </c>
       <c r="F189" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D190">
         <v>24</v>
       </c>
       <c r="E190">
-        <v>1196</v>
+        <v>772</v>
       </c>
       <c r="F190" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D191">
         <v>24</v>
       </c>
       <c r="E191">
-        <v>3125</v>
+        <v>1196</v>
       </c>
       <c r="F191" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D192">
         <v>24</v>
       </c>
       <c r="E192">
-        <v>956</v>
+        <v>3125</v>
       </c>
       <c r="F192" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D193">
         <v>24</v>
       </c>
       <c r="E193">
-        <v>702</v>
+        <v>956</v>
       </c>
       <c r="F193" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D194">
         <v>24</v>
       </c>
       <c r="E194">
-        <v>1037</v>
+        <v>702</v>
       </c>
       <c r="F194" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D195">
         <v>24</v>
       </c>
       <c r="E195">
-        <v>1100</v>
+        <v>1037</v>
       </c>
       <c r="F195" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D196">
         <v>24</v>
       </c>
       <c r="E196">
-        <v>1013</v>
+        <v>1100</v>
       </c>
       <c r="F196" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D197">
         <v>24</v>
       </c>
       <c r="E197">
-        <v>833</v>
+        <v>1013</v>
       </c>
       <c r="F197" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D198">
         <v>24</v>
       </c>
       <c r="E198">
-        <v>1139</v>
+        <v>833</v>
       </c>
       <c r="F198" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D199">
         <v>24</v>
       </c>
       <c r="E199">
-        <v>1100</v>
+        <v>1139</v>
       </c>
       <c r="F199" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D200">
         <v>24</v>
       </c>
       <c r="E200">
-        <v>1244</v>
+        <v>1100</v>
       </c>
       <c r="F200" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D201">
         <v>24</v>
       </c>
       <c r="E201">
-        <v>1352</v>
+        <v>1244</v>
       </c>
       <c r="F201" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D202">
         <v>24</v>
       </c>
       <c r="E202">
-        <v>2031</v>
+        <v>1352</v>
       </c>
       <c r="F202" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D203">
         <v>24</v>
       </c>
       <c r="E203">
+        <v>2031</v>
+      </c>
+      <c r="F203" s="2">
+        <v>44226.988738425927</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D204">
+        <v>24</v>
+      </c>
+      <c r="E204">
         <v>1564</v>
       </c>
-      <c r="F203" s="2">
-        <v>44226.988738425927</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B204" s="1" t="s">
+      <c r="F204" s="2">
+        <v>44226.988738425927</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D204">
-        <v>25</v>
-      </c>
-      <c r="E204">
-        <v>6843</v>
-      </c>
-      <c r="F204" s="2">
-        <v>44226.988738425927</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D205">
         <v>25</v>
       </c>
       <c r="E205">
-        <v>6401</v>
+        <v>6843</v>
       </c>
       <c r="F205" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D206">
         <v>25</v>
       </c>
       <c r="E206">
-        <v>6599</v>
+        <v>6401</v>
       </c>
       <c r="F206" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D207">
         <v>25</v>
       </c>
       <c r="E207">
-        <v>5676</v>
+        <v>6599</v>
       </c>
       <c r="F207" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D208">
         <v>25</v>
       </c>
       <c r="E208">
-        <v>5754</v>
+        <v>5676</v>
       </c>
       <c r="F208" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D209">
         <v>25</v>
       </c>
       <c r="E209">
+        <v>5754</v>
+      </c>
+      <c r="F209" s="2">
+        <v>44226.988738425927</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D210">
+        <v>25</v>
+      </c>
+      <c r="E210">
         <v>6275</v>
       </c>
-      <c r="F209" s="2">
-        <v>44226.988738425927</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B210" s="1" t="s">
+      <c r="F210" s="2">
+        <v>44226.988738425927</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D210">
-        <v>26</v>
-      </c>
-      <c r="E210">
-        <v>12537</v>
-      </c>
-      <c r="F210" s="2">
-        <v>44226.988738425927</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D211">
         <v>26</v>
       </c>
       <c r="E211">
-        <v>12853</v>
+        <v>12537</v>
       </c>
       <c r="F211" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D212">
         <v>26</v>
       </c>
       <c r="E212">
-        <v>14818</v>
+        <v>12853</v>
       </c>
       <c r="F212" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D213">
         <v>26</v>
       </c>
       <c r="E213">
-        <v>14438</v>
+        <v>14818</v>
       </c>
       <c r="F213" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D214">
         <v>26</v>
       </c>
       <c r="E214">
-        <v>12841</v>
+        <v>14438</v>
       </c>
       <c r="F214" s="2">
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D215">
         <v>26</v>
       </c>
       <c r="E215">
+        <v>12841</v>
+      </c>
+      <c r="F215" s="2">
+        <v>44226.988738425927</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D216">
+        <v>26</v>
+      </c>
+      <c r="E216">
         <v>11881</v>
       </c>
-      <c r="F215" s="2">
-        <v>44226.988738425927</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B216" s="1" t="s">
+      <c r="F216" s="2">
+        <v>44226.988738425927</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D216">
-        <v>27</v>
-      </c>
-      <c r="E216">
-        <v>3385</v>
-      </c>
-      <c r="F216" s="2">
-        <v>44226.988738425927</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D217">
         <v>27</v>
       </c>
       <c r="E217">
+        <v>3385</v>
+      </c>
+      <c r="F217" s="2">
+        <v>44226.988738425927</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D218">
+        <v>27</v>
+      </c>
+      <c r="E218">
         <v>3759</v>
       </c>
-      <c r="F217" s="2">
-        <v>44226.988738425927</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B218" s="1" t="s">
+      <c r="F218" s="2">
+        <v>44226.988738425927</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D218">
+      <c r="D219">
         <v>28</v>
       </c>
-      <c r="E218">
+      <c r="E219">
         <v>2060</v>
       </c>
-      <c r="F218" s="2">
-        <v>44226.988738425927</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B219" s="1" t="s">
+      <c r="F219" s="2">
+        <v>44226.988738425927</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D219">
-        <v>33</v>
-      </c>
-      <c r="E219">
-        <v>0</v>
-      </c>
-      <c r="F219" s="2">
-        <v>44226.996990740743</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D220">
         <v>33</v>
@@ -5542,15 +5550,15 @@
         <v>44226.996990740743</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D221">
         <v>33</v>
@@ -5562,687 +5570,687 @@
         <v>44226.996990740743</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D222">
+        <v>33</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222" s="2">
+        <v>44226.996990740743</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D222">
+      <c r="D223">
         <v>34</v>
       </c>
-      <c r="E222">
+      <c r="E223">
         <v>2564</v>
       </c>
-      <c r="F222" s="2">
-        <v>44226.988738425927</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B223" s="1" t="s">
+      <c r="F223" s="2">
+        <v>44226.988738425927</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D223">
-        <v>1</v>
-      </c>
-      <c r="E223">
-        <v>1260</v>
-      </c>
-      <c r="F223" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D224">
         <v>1</v>
       </c>
       <c r="E224">
-        <v>2088</v>
+        <v>1260</v>
       </c>
       <c r="F224" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D225">
         <v>1</v>
       </c>
       <c r="E225">
-        <v>2236</v>
+        <v>2088</v>
       </c>
       <c r="F225" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D226">
         <v>1</v>
       </c>
       <c r="E226">
-        <v>2156</v>
+        <v>2236</v>
       </c>
       <c r="F226" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D227">
         <v>1</v>
       </c>
       <c r="E227">
-        <v>3804</v>
+        <v>2156</v>
       </c>
       <c r="F227" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D228">
         <v>1</v>
       </c>
       <c r="E228">
-        <v>2856</v>
+        <v>3804</v>
       </c>
       <c r="F228" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D229">
         <v>1</v>
       </c>
       <c r="E229">
+        <v>2856</v>
+      </c>
+      <c r="F229" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
         <v>3959</v>
       </c>
-      <c r="F229" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B230" s="1" t="s">
+      <c r="F230" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C231" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D230">
-        <v>2</v>
-      </c>
-      <c r="E230">
-        <v>2194</v>
-      </c>
-      <c r="F230" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D231">
         <v>2</v>
       </c>
       <c r="E231">
-        <v>2780</v>
+        <v>2194</v>
       </c>
       <c r="F231" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D232">
         <v>2</v>
       </c>
       <c r="E232">
-        <v>2570</v>
+        <v>2780</v>
       </c>
       <c r="F232" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D233">
         <v>2</v>
       </c>
       <c r="E233">
-        <v>1993</v>
+        <v>2570</v>
       </c>
       <c r="F233" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D234">
         <v>2</v>
       </c>
       <c r="E234">
-        <v>3869</v>
+        <v>1993</v>
       </c>
       <c r="F234" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D235">
         <v>2</v>
       </c>
       <c r="E235">
-        <v>3376</v>
+        <v>3869</v>
       </c>
       <c r="F235" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D236">
         <v>2</v>
       </c>
       <c r="E236">
+        <v>3376</v>
+      </c>
+      <c r="F236" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237">
         <v>4473</v>
       </c>
-      <c r="F236" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B237" s="1" t="s">
+      <c r="F237" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D237">
-        <v>3</v>
-      </c>
-      <c r="E237">
-        <v>1583</v>
-      </c>
-      <c r="F237" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D238">
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1853</v>
+        <v>1583</v>
       </c>
       <c r="F238" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D239">
         <v>3</v>
       </c>
       <c r="E239">
-        <v>3976</v>
+        <v>1853</v>
       </c>
       <c r="F239" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D240">
         <v>3</v>
       </c>
       <c r="E240">
-        <v>2634</v>
+        <v>3976</v>
       </c>
       <c r="F240" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D241">
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1566</v>
+        <v>2634</v>
       </c>
       <c r="F241" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D242">
         <v>3</v>
       </c>
       <c r="E242">
+        <v>1566</v>
+      </c>
+      <c r="F242" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D243">
+        <v>3</v>
+      </c>
+      <c r="E243">
         <v>4059</v>
       </c>
-      <c r="F242" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B243" s="1" t="s">
+      <c r="F243" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C244" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D243">
-        <v>4</v>
-      </c>
-      <c r="E243">
-        <v>3001</v>
-      </c>
-      <c r="F243" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D244">
         <v>4</v>
       </c>
       <c r="E244">
-        <v>3282</v>
+        <v>3001</v>
       </c>
       <c r="F244" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D245">
         <v>4</v>
       </c>
       <c r="E245">
-        <v>5082</v>
+        <v>3282</v>
       </c>
       <c r="F245" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D246">
         <v>4</v>
       </c>
       <c r="E246">
-        <v>3460</v>
+        <v>5082</v>
       </c>
       <c r="F246" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D247">
         <v>4</v>
       </c>
       <c r="E247">
-        <v>1928</v>
+        <v>3460</v>
       </c>
       <c r="F247" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D248">
         <v>4</v>
       </c>
       <c r="E248">
+        <v>1928</v>
+      </c>
+      <c r="F248" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D249">
+        <v>4</v>
+      </c>
+      <c r="E249">
         <v>3516</v>
       </c>
-      <c r="F248" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B249" s="1" t="s">
+      <c r="F249" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C250" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D249">
-        <v>5</v>
-      </c>
-      <c r="E249">
-        <v>1878</v>
-      </c>
-      <c r="F249" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D250">
         <v>5</v>
       </c>
       <c r="E250">
-        <v>3601</v>
+        <v>1878</v>
       </c>
       <c r="F250" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D251">
         <v>5</v>
       </c>
       <c r="E251">
-        <v>5032</v>
+        <v>3601</v>
       </c>
       <c r="F251" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D252">
         <v>5</v>
       </c>
       <c r="E252">
-        <v>3094</v>
+        <v>5032</v>
       </c>
       <c r="F252" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D253">
         <v>5</v>
       </c>
       <c r="E253">
-        <v>2394</v>
+        <v>3094</v>
       </c>
       <c r="F253" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D254">
         <v>5</v>
       </c>
       <c r="E254">
+        <v>2394</v>
+      </c>
+      <c r="F254" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D255">
+        <v>5</v>
+      </c>
+      <c r="E255">
         <v>4631</v>
       </c>
-      <c r="F254" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D255">
-        <v>6</v>
-      </c>
-      <c r="E255">
-        <v>3881</v>
-      </c>
       <c r="F255" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>225</v>
       </c>
@@ -6262,27 +6270,27 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D257">
         <v>6</v>
       </c>
       <c r="E257">
-        <v>4692</v>
+        <v>3881</v>
       </c>
       <c r="F257" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>225</v>
       </c>
@@ -6302,27 +6310,27 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D259">
         <v>6</v>
       </c>
       <c r="E259">
-        <v>5278</v>
+        <v>4692</v>
       </c>
       <c r="F259" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>225</v>
       </c>
@@ -6342,2701 +6350,2701 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D261">
+        <v>6</v>
+      </c>
+      <c r="E261">
+        <v>5278</v>
+      </c>
+      <c r="F261" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C262" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D261">
-        <v>6</v>
-      </c>
-      <c r="E261">
+      <c r="D262">
+        <v>6</v>
+      </c>
+      <c r="E262">
         <v>5193</v>
       </c>
-      <c r="F261" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B262" s="1" t="s">
+      <c r="F262" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C263" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D262">
-        <v>6</v>
-      </c>
-      <c r="E262">
+      <c r="D263">
+        <v>6</v>
+      </c>
+      <c r="E263">
         <v>2151</v>
       </c>
-      <c r="F262" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B263" s="1" t="s">
+      <c r="F263" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C264" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D263">
-        <v>6</v>
-      </c>
-      <c r="E263">
+      <c r="D264">
+        <v>6</v>
+      </c>
+      <c r="E264">
         <v>1760</v>
       </c>
-      <c r="F263" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B264" s="1" t="s">
+      <c r="F264" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="C265" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D264">
-        <v>6</v>
-      </c>
-      <c r="E264">
+      <c r="D265">
+        <v>6</v>
+      </c>
+      <c r="E265">
         <v>1926</v>
       </c>
-      <c r="F264" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B265" s="1" t="s">
+      <c r="F265" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D265">
-        <v>6</v>
-      </c>
-      <c r="E265">
+      <c r="D266">
+        <v>6</v>
+      </c>
+      <c r="E266">
         <v>2904</v>
       </c>
-      <c r="F265" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B266" s="1" t="s">
+      <c r="F266" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="C267" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D266">
-        <v>7</v>
-      </c>
-      <c r="E266">
-        <v>3858</v>
-      </c>
-      <c r="F266" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D267">
         <v>7</v>
       </c>
       <c r="E267">
-        <v>1903</v>
+        <v>3858</v>
       </c>
       <c r="F267" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D268">
         <v>7</v>
       </c>
       <c r="E268">
-        <v>3890</v>
+        <v>1903</v>
       </c>
       <c r="F268" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D269">
         <v>7</v>
       </c>
       <c r="E269">
-        <v>4693</v>
+        <v>3890</v>
       </c>
       <c r="F269" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D270">
         <v>7</v>
       </c>
       <c r="E270">
-        <v>2764</v>
+        <v>4693</v>
       </c>
       <c r="F270" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D271">
         <v>7</v>
       </c>
       <c r="E271">
-        <v>1709</v>
+        <v>2764</v>
       </c>
       <c r="F271" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D272">
         <v>7</v>
       </c>
       <c r="E272">
-        <v>816</v>
+        <v>1709</v>
       </c>
       <c r="F272" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D273">
         <v>7</v>
       </c>
       <c r="E273">
-        <v>2370</v>
+        <v>816</v>
       </c>
       <c r="F273" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D274">
         <v>7</v>
       </c>
       <c r="E274">
-        <v>2187</v>
+        <v>2370</v>
       </c>
       <c r="F274" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D275">
         <v>7</v>
       </c>
       <c r="E275">
-        <v>1160</v>
+        <v>2187</v>
       </c>
       <c r="F275" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D276">
         <v>7</v>
       </c>
       <c r="E276">
-        <v>4336</v>
+        <v>1160</v>
       </c>
       <c r="F276" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D277">
         <v>7</v>
       </c>
       <c r="E277">
-        <v>1074</v>
+        <v>4336</v>
       </c>
       <c r="F277" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D278">
         <v>7</v>
       </c>
       <c r="E278">
+        <v>1074</v>
+      </c>
+      <c r="F278" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D279">
+        <v>7</v>
+      </c>
+      <c r="E279">
         <v>3604</v>
       </c>
-      <c r="F278" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B279" s="1" t="s">
+      <c r="F279" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="C280" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D279">
-        <v>8</v>
-      </c>
-      <c r="E279">
-        <v>1717</v>
-      </c>
-      <c r="F279" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D280">
         <v>8</v>
       </c>
       <c r="E280">
-        <v>3018</v>
+        <v>1717</v>
       </c>
       <c r="F280" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D281">
         <v>8</v>
       </c>
       <c r="E281">
-        <v>2795</v>
+        <v>3018</v>
       </c>
       <c r="F281" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D282">
         <v>8</v>
       </c>
       <c r="E282">
-        <v>3939</v>
+        <v>2795</v>
       </c>
       <c r="F282" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D283">
         <v>8</v>
       </c>
       <c r="E283">
-        <v>1449</v>
+        <v>3939</v>
       </c>
       <c r="F283" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D284">
         <v>8</v>
       </c>
       <c r="E284">
-        <v>2661</v>
+        <v>1449</v>
       </c>
       <c r="F284" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D285">
         <v>8</v>
       </c>
       <c r="E285">
-        <v>3384</v>
+        <v>2661</v>
       </c>
       <c r="F285" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D286">
         <v>8</v>
       </c>
       <c r="E286">
-        <v>6093</v>
+        <v>3384</v>
       </c>
       <c r="F286" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D287">
         <v>8</v>
       </c>
       <c r="E287">
-        <v>4210</v>
+        <v>6093</v>
       </c>
       <c r="F287" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D288">
         <v>8</v>
       </c>
       <c r="E288">
-        <v>1234</v>
+        <v>4210</v>
       </c>
       <c r="F288" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D289">
         <v>8</v>
       </c>
       <c r="E289">
-        <v>10577</v>
+        <v>1234</v>
       </c>
       <c r="F289" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D290">
         <v>8</v>
       </c>
       <c r="E290">
-        <v>2557</v>
+        <v>10577</v>
       </c>
       <c r="F290" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D291">
         <v>8</v>
       </c>
       <c r="E291">
-        <v>11135</v>
+        <v>2557</v>
       </c>
       <c r="F291" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D292">
         <v>8</v>
       </c>
       <c r="E292">
-        <v>3906</v>
+        <v>11135</v>
       </c>
       <c r="F292" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D293">
         <v>8</v>
       </c>
       <c r="E293">
-        <v>2306</v>
+        <v>3906</v>
       </c>
       <c r="F293" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D294">
         <v>8</v>
       </c>
       <c r="E294">
-        <v>1260</v>
+        <v>2306</v>
       </c>
       <c r="F294" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D295">
         <v>8</v>
       </c>
       <c r="E295">
-        <v>1789</v>
+        <v>1260</v>
       </c>
       <c r="F295" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D296">
         <v>8</v>
       </c>
       <c r="E296">
-        <v>3389</v>
+        <v>1789</v>
       </c>
       <c r="F296" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D297">
         <v>8</v>
       </c>
       <c r="E297">
-        <v>3349</v>
+        <v>3389</v>
       </c>
       <c r="F297" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D298">
         <v>8</v>
       </c>
       <c r="E298">
-        <v>3105</v>
+        <v>3349</v>
       </c>
       <c r="F298" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D299">
         <v>8</v>
       </c>
       <c r="E299">
-        <v>3036</v>
+        <v>3105</v>
       </c>
       <c r="F299" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D300">
         <v>8</v>
       </c>
       <c r="E300">
-        <v>4662</v>
+        <v>3036</v>
       </c>
       <c r="F300" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D301">
         <v>8</v>
       </c>
       <c r="E301">
-        <v>7669</v>
+        <v>4662</v>
       </c>
       <c r="F301" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D302">
         <v>8</v>
       </c>
       <c r="E302">
-        <v>3353</v>
+        <v>7669</v>
       </c>
       <c r="F302" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D303">
         <v>8</v>
       </c>
       <c r="E303">
-        <v>3670</v>
+        <v>3353</v>
       </c>
       <c r="F303" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D304">
         <v>8</v>
       </c>
       <c r="E304">
-        <v>1637</v>
+        <v>3670</v>
       </c>
       <c r="F304" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D305">
         <v>8</v>
       </c>
       <c r="E305">
-        <v>2375</v>
+        <v>1637</v>
       </c>
       <c r="F305" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D306">
         <v>8</v>
       </c>
       <c r="E306">
-        <v>1556</v>
+        <v>2375</v>
       </c>
       <c r="F306" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D307">
         <v>8</v>
       </c>
       <c r="E307">
-        <v>2933</v>
+        <v>1556</v>
       </c>
       <c r="F307" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D308">
         <v>8</v>
       </c>
       <c r="E308">
-        <v>1550</v>
+        <v>2933</v>
       </c>
       <c r="F308" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D309">
         <v>8</v>
       </c>
       <c r="E309">
-        <v>3955</v>
+        <v>1550</v>
       </c>
       <c r="F309" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D310">
         <v>8</v>
       </c>
       <c r="E310">
-        <v>1614</v>
+        <v>3955</v>
       </c>
       <c r="F310" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D311">
         <v>8</v>
       </c>
       <c r="E311">
-        <v>3133</v>
+        <v>1614</v>
       </c>
       <c r="F311" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D312">
         <v>8</v>
       </c>
       <c r="E312">
-        <v>814</v>
+        <v>3133</v>
       </c>
       <c r="F312" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D313">
         <v>8</v>
       </c>
       <c r="E313">
-        <v>6992</v>
+        <v>814</v>
       </c>
       <c r="F313" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D314">
         <v>8</v>
       </c>
       <c r="E314">
-        <v>5213</v>
+        <v>6992</v>
       </c>
       <c r="F314" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D315">
         <v>8</v>
       </c>
       <c r="E315">
-        <v>3574</v>
+        <v>5213</v>
       </c>
       <c r="F315" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D316">
         <v>8</v>
       </c>
       <c r="E316">
-        <v>2527</v>
+        <v>3574</v>
       </c>
       <c r="F316" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D317">
         <v>8</v>
       </c>
       <c r="E317">
-        <v>4277</v>
+        <v>2527</v>
       </c>
       <c r="F317" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D318">
         <v>8</v>
       </c>
       <c r="E318">
-        <v>4316</v>
+        <v>4277</v>
       </c>
       <c r="F318" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D319">
         <v>8</v>
       </c>
       <c r="E319">
-        <v>2771</v>
+        <v>4316</v>
       </c>
       <c r="F319" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D320">
         <v>8</v>
       </c>
       <c r="E320">
+        <v>2771</v>
+      </c>
+      <c r="F320" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D321">
+        <v>8</v>
+      </c>
+      <c r="E321">
         <v>1078</v>
       </c>
-      <c r="F320" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B321" s="1" t="s">
+      <c r="F321" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="C322" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D321">
-        <v>9</v>
-      </c>
-      <c r="E321">
-        <v>2027</v>
-      </c>
-      <c r="F321" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D322">
         <v>9</v>
       </c>
       <c r="E322">
-        <v>3342</v>
+        <v>2027</v>
       </c>
       <c r="F322" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D323">
         <v>9</v>
       </c>
       <c r="E323">
-        <v>1940</v>
+        <v>3342</v>
       </c>
       <c r="F323" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D324">
         <v>9</v>
       </c>
       <c r="E324">
-        <v>2704</v>
+        <v>1940</v>
       </c>
       <c r="F324" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D325">
         <v>9</v>
       </c>
       <c r="E325">
-        <v>2896</v>
+        <v>2704</v>
       </c>
       <c r="F325" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D326">
         <v>9</v>
       </c>
       <c r="E326">
-        <v>2381</v>
+        <v>2896</v>
       </c>
       <c r="F326" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D327">
         <v>9</v>
       </c>
       <c r="E327">
-        <v>2040</v>
+        <v>2381</v>
       </c>
       <c r="F327" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D328">
         <v>9</v>
       </c>
       <c r="E328">
-        <v>2629</v>
+        <v>2040</v>
       </c>
       <c r="F328" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D329">
         <v>9</v>
       </c>
       <c r="E329">
-        <v>2995</v>
+        <v>2629</v>
       </c>
       <c r="F329" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D330">
         <v>9</v>
       </c>
       <c r="E330">
-        <v>2286</v>
+        <v>2995</v>
       </c>
       <c r="F330" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D331">
         <v>9</v>
       </c>
       <c r="E331">
-        <v>2190</v>
+        <v>2286</v>
       </c>
       <c r="F331" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D332">
         <v>9</v>
       </c>
       <c r="E332">
-        <v>2271</v>
+        <v>2190</v>
       </c>
       <c r="F332" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D333">
         <v>9</v>
       </c>
       <c r="E333">
-        <v>2078</v>
+        <v>2271</v>
       </c>
       <c r="F333" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D334">
         <v>9</v>
       </c>
       <c r="E334">
-        <v>2289</v>
+        <v>2078</v>
       </c>
       <c r="F334" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D335">
         <v>9</v>
       </c>
       <c r="E335">
-        <v>1677</v>
+        <v>2289</v>
       </c>
       <c r="F335" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D336">
         <v>9</v>
       </c>
       <c r="E336">
-        <v>1714</v>
+        <v>1677</v>
       </c>
       <c r="F336" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D337">
         <v>9</v>
       </c>
       <c r="E337">
-        <v>1546</v>
+        <v>1714</v>
       </c>
       <c r="F337" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D338">
         <v>9</v>
       </c>
       <c r="E338">
+        <v>1546</v>
+      </c>
+      <c r="F338" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D339">
+        <v>9</v>
+      </c>
+      <c r="E339">
         <v>2192</v>
       </c>
-      <c r="F338" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B339" s="1" t="s">
+      <c r="F339" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="C340" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D339">
-        <v>10</v>
-      </c>
-      <c r="E339">
-        <v>1968</v>
-      </c>
-      <c r="F339" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C340" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D340">
         <v>10</v>
       </c>
       <c r="E340">
-        <v>1369</v>
+        <v>1968</v>
       </c>
       <c r="F340" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D341">
         <v>10</v>
       </c>
       <c r="E341">
-        <v>1468</v>
+        <v>1369</v>
       </c>
       <c r="F341" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D342">
         <v>10</v>
       </c>
       <c r="E342">
-        <v>1967</v>
+        <v>1468</v>
       </c>
       <c r="F342" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D343">
         <v>10</v>
       </c>
       <c r="E343">
-        <v>2145</v>
+        <v>1967</v>
       </c>
       <c r="F343" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D344">
         <v>10</v>
       </c>
       <c r="E344">
-        <v>1611</v>
+        <v>2145</v>
       </c>
       <c r="F344" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D345">
         <v>10</v>
       </c>
       <c r="E345">
+        <v>1611</v>
+      </c>
+      <c r="F345" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D346">
+        <v>10</v>
+      </c>
+      <c r="E346">
         <v>1508</v>
       </c>
-      <c r="F345" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B346" s="1" t="s">
+      <c r="F346" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="C347" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D346">
-        <v>11</v>
-      </c>
-      <c r="E346">
-        <v>2377</v>
-      </c>
-      <c r="F346" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D347">
         <v>11</v>
       </c>
       <c r="E347">
-        <v>1752</v>
+        <v>2377</v>
       </c>
       <c r="F347" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D348">
         <v>11</v>
       </c>
       <c r="E348">
-        <v>1875</v>
+        <v>1752</v>
       </c>
       <c r="F348" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D349">
         <v>11</v>
       </c>
       <c r="E349">
+        <v>1875</v>
+      </c>
+      <c r="F349" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D350">
+        <v>11</v>
+      </c>
+      <c r="E350">
         <v>2936</v>
       </c>
-      <c r="F349" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B350" s="1" t="s">
+      <c r="F350" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="C351" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D350">
-        <v>12</v>
-      </c>
-      <c r="E350">
-        <v>1213</v>
-      </c>
-      <c r="F350" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D351">
         <v>12</v>
       </c>
       <c r="E351">
-        <v>1347</v>
+        <v>1213</v>
       </c>
       <c r="F351" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D352">
         <v>12</v>
       </c>
       <c r="E352">
-        <v>1088</v>
+        <v>1347</v>
       </c>
       <c r="F352" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D353">
         <v>12</v>
       </c>
       <c r="E353">
-        <v>1227</v>
+        <v>1088</v>
       </c>
       <c r="F353" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D354">
         <v>12</v>
       </c>
       <c r="E354">
-        <v>693</v>
+        <v>1227</v>
       </c>
       <c r="F354" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D355">
         <v>12</v>
       </c>
       <c r="E355">
-        <v>923</v>
+        <v>693</v>
       </c>
       <c r="F355" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D356">
         <v>12</v>
       </c>
       <c r="E356">
-        <v>809</v>
+        <v>923</v>
       </c>
       <c r="F356" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D357">
         <v>12</v>
       </c>
       <c r="E357">
-        <v>1644</v>
+        <v>809</v>
       </c>
       <c r="F357" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D358">
         <v>12</v>
       </c>
       <c r="E358">
+        <v>1644</v>
+      </c>
+      <c r="F358" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D359">
+        <v>12</v>
+      </c>
+      <c r="E359">
         <v>1022</v>
       </c>
-      <c r="F358" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B359" s="1" t="s">
+      <c r="F359" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C359" s="1" t="s">
+      <c r="C360" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D359">
-        <v>13</v>
-      </c>
-      <c r="E359">
-        <v>759</v>
-      </c>
-      <c r="F359" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D360">
         <v>13</v>
       </c>
       <c r="E360">
-        <v>728</v>
+        <v>759</v>
       </c>
       <c r="F360" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D361">
         <v>13</v>
       </c>
       <c r="E361">
-        <v>1149</v>
+        <v>728</v>
       </c>
       <c r="F361" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D362">
         <v>13</v>
       </c>
       <c r="E362">
+        <v>1149</v>
+      </c>
+      <c r="F362" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D363">
+        <v>13</v>
+      </c>
+      <c r="E363">
         <v>926</v>
       </c>
-      <c r="F362" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B363" s="1" t="s">
+      <c r="F363" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B364" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C363" s="1" t="s">
+      <c r="C364" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D363">
+      <c r="D364">
         <v>14</v>
       </c>
-      <c r="E363">
+      <c r="E364">
         <v>5831</v>
       </c>
-      <c r="F363" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B364" s="1" t="s">
+      <c r="F364" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B365" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C364" s="1" t="s">
+      <c r="C365" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D364">
-        <v>15</v>
-      </c>
-      <c r="E364">
-        <v>1609</v>
-      </c>
-      <c r="F364" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D365">
         <v>15</v>
       </c>
       <c r="E365">
-        <v>1440</v>
+        <v>1609</v>
       </c>
       <c r="F365" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D366">
         <v>15</v>
       </c>
       <c r="E366">
-        <v>1421</v>
+        <v>1440</v>
       </c>
       <c r="F366" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D367">
         <v>15</v>
       </c>
       <c r="E367">
-        <v>1700</v>
+        <v>1421</v>
       </c>
       <c r="F367" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D368">
         <v>15</v>
       </c>
       <c r="E368">
-        <v>1543</v>
+        <v>1700</v>
       </c>
       <c r="F368" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D369">
         <v>15</v>
       </c>
       <c r="E369">
-        <v>1679</v>
+        <v>1543</v>
       </c>
       <c r="F369" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D370">
         <v>15</v>
       </c>
       <c r="E370">
-        <v>2155</v>
+        <v>1679</v>
       </c>
       <c r="F370" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D371">
         <v>15</v>
       </c>
       <c r="E371">
-        <v>1556</v>
+        <v>2155</v>
       </c>
       <c r="F371" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D372">
         <v>15</v>
       </c>
       <c r="E372">
+        <v>1556</v>
+      </c>
+      <c r="F372" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D373">
+        <v>15</v>
+      </c>
+      <c r="E373">
         <v>1572</v>
       </c>
-      <c r="F372" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B373" s="1" t="s">
+      <c r="F373" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B374" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C373" s="1" t="s">
+      <c r="C374" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D373">
-        <v>16</v>
-      </c>
-      <c r="E373">
-        <v>621</v>
-      </c>
-      <c r="F373" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B374" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D374">
         <v>16</v>
       </c>
       <c r="E374">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="F374" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D375">
         <v>16</v>
       </c>
       <c r="E375">
-        <v>362</v>
+        <v>606</v>
       </c>
       <c r="F375" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D376">
         <v>16</v>
       </c>
       <c r="E376">
-        <v>405</v>
+        <v>362</v>
       </c>
       <c r="F376" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D377">
         <v>16</v>
       </c>
       <c r="E377">
+        <v>405</v>
+      </c>
+      <c r="F377" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D378">
+        <v>16</v>
+      </c>
+      <c r="E378">
         <v>902</v>
       </c>
-      <c r="F377" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B378" s="1" t="s">
+      <c r="F378" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B379" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C378" s="1" t="s">
+      <c r="C379" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D378">
-        <v>17</v>
-      </c>
-      <c r="E378">
-        <v>2272</v>
-      </c>
-      <c r="F378" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B379" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D379">
         <v>17</v>
       </c>
       <c r="E379">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="F379" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D380">
         <v>17</v>
       </c>
       <c r="E380">
-        <v>1921</v>
+        <v>2270</v>
       </c>
       <c r="F380" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D381">
         <v>17</v>
       </c>
       <c r="E381">
-        <v>2946</v>
+        <v>1921</v>
       </c>
       <c r="F381" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D382">
         <v>17</v>
       </c>
       <c r="E382">
-        <v>2601</v>
+        <v>2946</v>
       </c>
       <c r="F382" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D383">
         <v>17</v>
       </c>
       <c r="E383">
-        <v>3655</v>
+        <v>2601</v>
       </c>
       <c r="F383" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D384">
         <v>17</v>
       </c>
       <c r="E384">
+        <v>3655</v>
+      </c>
+      <c r="F384" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D385">
+        <v>17</v>
+      </c>
+      <c r="E385">
         <v>3332</v>
       </c>
-      <c r="F384" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B385" s="1" t="s">
+      <c r="F385" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B386" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C385" s="1" t="s">
+      <c r="C386" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D385">
-        <v>18</v>
-      </c>
-      <c r="E385">
-        <v>1381</v>
-      </c>
-      <c r="F385" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B386" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="D386">
         <v>18</v>
       </c>
       <c r="E386">
+        <v>1381</v>
+      </c>
+      <c r="F386" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D387">
+        <v>18</v>
+      </c>
+      <c r="E387">
         <v>1517</v>
       </c>
-      <c r="F386" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B387" s="1" t="s">
+      <c r="F387" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B388" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C387" s="1" t="s">
+      <c r="C388" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="D387">
-        <v>19</v>
-      </c>
-      <c r="E387">
-        <v>1670</v>
-      </c>
-      <c r="F387" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B388" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="D388">
         <v>19</v>
       </c>
       <c r="E388">
-        <v>1419</v>
+        <v>1670</v>
       </c>
       <c r="F388" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D389">
         <v>19</v>
       </c>
       <c r="E389">
+        <v>1419</v>
+      </c>
+      <c r="F389" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D390">
+        <v>19</v>
+      </c>
+      <c r="E390">
         <v>2922</v>
       </c>
-      <c r="F389" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B390" s="1" t="s">
+      <c r="F390" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B391" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C390" s="1" t="s">
+      <c r="C391" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D390">
-        <v>20</v>
-      </c>
-      <c r="E390">
-        <v>1204</v>
-      </c>
-      <c r="F390" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B391" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C391" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D391">
         <v>20</v>
       </c>
       <c r="E391">
-        <v>1249</v>
+        <v>1204</v>
       </c>
       <c r="F391" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D392">
         <v>20</v>
       </c>
       <c r="E392">
-        <v>1211</v>
+        <v>1249</v>
       </c>
       <c r="F392" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D393">
         <v>20</v>
       </c>
       <c r="E393">
-        <v>2006</v>
+        <v>1211</v>
       </c>
       <c r="F393" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D394">
         <v>20</v>
       </c>
       <c r="E394">
+        <v>2006</v>
+      </c>
+      <c r="F394" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D395">
+        <v>20</v>
+      </c>
+      <c r="E395">
         <v>2587</v>
-      </c>
-      <c r="F394" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B395" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D395">
-        <v>21</v>
-      </c>
-      <c r="E395">
-        <v>2816</v>
       </c>
       <c r="F395" s="2">
         <v>44255.16914351852</v>
@@ -9047,930 +9055,930 @@
         <v>225</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="D396">
         <v>21</v>
       </c>
       <c r="E396">
-        <v>2541</v>
+        <v>2816</v>
       </c>
       <c r="F396" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D397">
         <v>21</v>
       </c>
       <c r="E397">
-        <v>3419</v>
+        <v>2541</v>
       </c>
       <c r="F397" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D398">
         <v>21</v>
       </c>
       <c r="E398">
-        <v>2768</v>
+        <v>3419</v>
       </c>
       <c r="F398" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D399">
         <v>21</v>
       </c>
       <c r="E399">
+        <v>2768</v>
+      </c>
+      <c r="F399" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D400">
+        <v>21</v>
+      </c>
+      <c r="E400">
         <v>2949</v>
       </c>
-      <c r="F399" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B400" s="1" t="s">
+      <c r="F400" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B401" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C400" s="1" t="s">
+      <c r="C401" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D400">
-        <v>22</v>
-      </c>
-      <c r="E400">
-        <v>3718</v>
-      </c>
-      <c r="F400" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B401" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="D401">
         <v>22</v>
       </c>
       <c r="E401">
-        <v>3960</v>
+        <v>3718</v>
       </c>
       <c r="F401" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D402">
         <v>22</v>
       </c>
       <c r="E402">
-        <v>4682</v>
+        <v>3960</v>
       </c>
       <c r="F402" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D403">
         <v>22</v>
       </c>
       <c r="E403">
+        <v>4682</v>
+      </c>
+      <c r="F403" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D404">
+        <v>22</v>
+      </c>
+      <c r="E404">
         <v>6331</v>
       </c>
-      <c r="F403" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B404" s="1" t="s">
+      <c r="F404" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B405" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C404" s="1" t="s">
+      <c r="C405" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D404">
-        <v>23</v>
-      </c>
-      <c r="E404">
-        <v>5311</v>
-      </c>
-      <c r="F404" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B405" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="D405">
         <v>23</v>
       </c>
       <c r="E405">
-        <v>6243</v>
+        <v>5311</v>
       </c>
       <c r="F405" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D406">
         <v>23</v>
       </c>
       <c r="E406">
-        <v>7199</v>
+        <v>6243</v>
       </c>
       <c r="F406" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D407">
         <v>23</v>
       </c>
       <c r="E407">
-        <v>7835</v>
+        <v>7199</v>
       </c>
       <c r="F407" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D408">
         <v>23</v>
       </c>
       <c r="E408">
-        <v>7660</v>
+        <v>7835</v>
       </c>
       <c r="F408" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D409">
         <v>23</v>
       </c>
       <c r="E409">
+        <v>7660</v>
+      </c>
+      <c r="F409" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D410">
+        <v>23</v>
+      </c>
+      <c r="E410">
         <v>5595</v>
       </c>
-      <c r="F409" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B410" s="1" t="s">
+      <c r="F410" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B411" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C410" s="1" t="s">
+      <c r="C411" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D410">
-        <v>24</v>
-      </c>
-      <c r="E410">
-        <v>1132</v>
-      </c>
-      <c r="F410" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B411" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="D411">
         <v>24</v>
       </c>
       <c r="E411">
-        <v>755</v>
+        <v>1132</v>
       </c>
       <c r="F411" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D412">
         <v>24</v>
       </c>
       <c r="E412">
-        <v>1068</v>
+        <v>755</v>
       </c>
       <c r="F412" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D413">
         <v>24</v>
       </c>
       <c r="E413">
-        <v>3147</v>
+        <v>1068</v>
       </c>
       <c r="F413" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D414">
         <v>24</v>
       </c>
       <c r="E414">
-        <v>907</v>
+        <v>3147</v>
       </c>
       <c r="F414" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D415">
         <v>24</v>
       </c>
       <c r="E415">
-        <v>684</v>
+        <v>907</v>
       </c>
       <c r="F415" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D416">
         <v>24</v>
       </c>
       <c r="E416">
-        <v>1010</v>
+        <v>684</v>
       </c>
       <c r="F416" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D417">
         <v>24</v>
       </c>
       <c r="E417">
-        <v>1069</v>
+        <v>1010</v>
       </c>
       <c r="F417" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D418">
         <v>24</v>
       </c>
       <c r="E418">
-        <v>981</v>
+        <v>1069</v>
       </c>
       <c r="F418" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D419">
         <v>24</v>
       </c>
       <c r="E419">
-        <v>809</v>
+        <v>981</v>
       </c>
       <c r="F419" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D420">
         <v>24</v>
       </c>
       <c r="E420">
-        <v>1090</v>
+        <v>809</v>
       </c>
       <c r="F420" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D421">
         <v>24</v>
       </c>
       <c r="E421">
-        <v>1057</v>
+        <v>1090</v>
       </c>
       <c r="F421" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D422">
         <v>24</v>
       </c>
       <c r="E422">
-        <v>1215</v>
+        <v>1057</v>
       </c>
       <c r="F422" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D423">
         <v>24</v>
       </c>
       <c r="E423">
-        <v>1334</v>
+        <v>1215</v>
       </c>
       <c r="F423" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D424">
         <v>24</v>
       </c>
       <c r="E424">
-        <v>2008</v>
+        <v>1334</v>
       </c>
       <c r="F424" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D425">
         <v>24</v>
       </c>
       <c r="E425">
+        <v>2008</v>
+      </c>
+      <c r="F425" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D426">
+        <v>24</v>
+      </c>
+      <c r="E426">
         <v>1566</v>
       </c>
-      <c r="F425" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B426" s="1" t="s">
+      <c r="F426" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B427" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C426" s="1" t="s">
+      <c r="C427" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D426">
-        <v>25</v>
-      </c>
-      <c r="E426">
-        <v>6736</v>
-      </c>
-      <c r="F426" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D427">
         <v>25</v>
       </c>
       <c r="E427">
-        <v>6545</v>
+        <v>6736</v>
       </c>
       <c r="F427" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D428">
         <v>25</v>
       </c>
       <c r="E428">
-        <v>6533</v>
+        <v>6545</v>
       </c>
       <c r="F428" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D429">
         <v>25</v>
       </c>
       <c r="E429">
-        <v>5399</v>
+        <v>6533</v>
       </c>
       <c r="F429" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D430">
         <v>25</v>
       </c>
       <c r="E430">
-        <v>5559</v>
+        <v>5399</v>
       </c>
       <c r="F430" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D431">
         <v>25</v>
       </c>
       <c r="E431">
+        <v>5559</v>
+      </c>
+      <c r="F431" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D432">
+        <v>25</v>
+      </c>
+      <c r="E432">
         <v>6229</v>
       </c>
-      <c r="F431" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B432" s="1" t="s">
+      <c r="F432" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B433" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C432" s="1" t="s">
+      <c r="C433" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="D432">
-        <v>26</v>
-      </c>
-      <c r="E432">
-        <v>12408</v>
-      </c>
-      <c r="F432" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D433">
         <v>26</v>
       </c>
       <c r="E433">
-        <v>12757</v>
+        <v>12408</v>
       </c>
       <c r="F433" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D434">
         <v>26</v>
       </c>
       <c r="E434">
-        <v>14754</v>
+        <v>12757</v>
       </c>
       <c r="F434" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D435">
         <v>26</v>
       </c>
       <c r="E435">
-        <v>14392</v>
+        <v>14754</v>
       </c>
       <c r="F435" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D436">
         <v>26</v>
       </c>
       <c r="E436">
-        <v>12810</v>
+        <v>14392</v>
       </c>
       <c r="F436" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D437">
         <v>26</v>
       </c>
       <c r="E437">
+        <v>12810</v>
+      </c>
+      <c r="F437" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D438">
+        <v>26</v>
+      </c>
+      <c r="E438">
         <v>11722</v>
       </c>
-      <c r="F437" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B438" s="1" t="s">
+      <c r="F438" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C438" s="1" t="s">
+      <c r="C439" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D438">
-        <v>27</v>
-      </c>
-      <c r="E438">
-        <v>3374</v>
-      </c>
-      <c r="F438" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D439">
         <v>27</v>
       </c>
       <c r="E439">
+        <v>3374</v>
+      </c>
+      <c r="F439" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D440">
+        <v>27</v>
+      </c>
+      <c r="E440">
         <v>3782</v>
       </c>
-      <c r="F439" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B440" s="1" t="s">
+      <c r="F440" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B441" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C440" s="1" t="s">
+      <c r="C441" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D440">
+      <c r="D441">
         <v>28</v>
       </c>
-      <c r="E440">
+      <c r="E441">
         <v>2018</v>
       </c>
-      <c r="F440" s="2">
-        <v>44255.16914351852</v>
-      </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B441" s="1" t="s">
+      <c r="F441" s="2">
+        <v>44255.16914351852</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B442" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C441" s="1" t="s">
+      <c r="C442" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D441">
-        <v>33</v>
-      </c>
-      <c r="E441">
-        <v>0</v>
-      </c>
-      <c r="F441" s="2">
-        <v>44255.179965277777</v>
-      </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="D442">
         <v>33</v>
@@ -9979,18 +9987,18 @@
         <v>0</v>
       </c>
       <c r="F442" s="2">
-        <v>44255.179976851854</v>
-      </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44255.179965277777</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D443">
         <v>33</v>
@@ -10002,15 +10010,15 @@
         <v>44255.179976851854</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D444">
         <v>33</v>
@@ -10019,18 +10027,18 @@
         <v>0</v>
       </c>
       <c r="F444" s="2">
-        <v>44255.179965277777</v>
-      </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44255.179976851854</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D445">
         <v>33</v>
@@ -10042,23 +10050,43 @@
         <v>44255.179965277777</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B446" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D446">
+        <v>33</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446" s="2">
+        <v>44255.179965277777</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B447" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C446" s="1" t="s">
+      <c r="C447" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D446">
+      <c r="D447">
         <v>34</v>
       </c>
-      <c r="E446">
+      <c r="E447">
         <v>2500</v>
       </c>
-      <c r="F446" s="2">
+      <c r="F447" s="2">
         <v>44255.16914351852</v>
       </c>
     </row>

--- a/Acervos Janeiro e fevereiro de 2021 - 1º Grau.xlsx
+++ b/Acervos Janeiro e fevereiro de 2021 - 1º Grau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99d2b5f2c1860f7d/Documentos/PRODUTIVIDADE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{54EF2DB4-9250-4CAF-9FC4-71B632E37C87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{55DE36C8-5A06-4DD9-8482-BDD664A404CE}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{54EF2DB4-9250-4CAF-9FC4-71B632E37C87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AB6F48F8-0411-4AEB-ADFE-7DB79F9883D4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5418E676-3F12-4F39-86DA-3564FB697F38}"/>
   </bookViews>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F7A559-DDF2-4EF9-AF7A-D69EC408705A}">
   <dimension ref="A1:F447"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F172" sqref="F172"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Acervos Janeiro e fevereiro de 2021 - 1º Grau.xlsx
+++ b/Acervos Janeiro e fevereiro de 2021 - 1º Grau.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99d2b5f2c1860f7d/Documentos/PRODUTIVIDADE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mecao\OneDrive\Documentos\PRODUTIVIDADE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{54EF2DB4-9250-4CAF-9FC4-71B632E37C87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AB6F48F8-0411-4AEB-ADFE-7DB79F9883D4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F0B175-95B6-41D0-B867-B0E710AC7438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5418E676-3F12-4F39-86DA-3564FB697F38}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="230">
   <si>
     <t>mes</t>
   </si>
@@ -733,6 +733,9 @@
   </si>
   <si>
     <t>NATAL - TURMA RECURSAL PROVISÓRIA</t>
+  </si>
+  <si>
+    <t>NATAL - 1ª VARA REGIONAL DE EXECUÇÃO PENAL</t>
   </si>
 </sst>
 </file>
@@ -819,13 +822,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52D6D440-C0A1-4EDB-996A-9FB961A5E11E}" name="Acervo___Janeiro_e_Fevereiro_2021" displayName="Acervo___Janeiro_e_Fevereiro_2021" ref="A1:F447" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F447" xr:uid="{B1FDFCB6-8DCA-4503-A82D-F3CBD671077A}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="MOSSORÓ - JUIZADO DE VIOLÊNCIA DOMÉSTICA E FAMILIAR CONTRA A MULHER"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F447" xr:uid="{B1FDFCB6-8DCA-4503-A82D-F3CBD671077A}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9578EE2F-B419-4D0A-8271-3324B5A8C52E}" uniqueName="1" name="mes" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{6E388BFA-7E69-418C-B610-E784D48A24A5}" uniqueName="2" name="UNIDADE" queryTableFieldId="2" dataDxfId="2"/>
@@ -1137,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F7A559-DDF2-4EF9-AF7A-D69EC408705A}">
   <dimension ref="A1:F447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B440" sqref="B440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1187,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1210,7 +1207,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1230,7 +1227,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1250,7 +1247,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1270,7 +1267,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1290,7 +1287,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1310,7 +1307,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1330,7 +1327,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1350,7 +1347,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1370,7 +1367,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1390,7 +1387,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1410,7 +1407,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1430,7 +1427,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1450,7 +1447,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1470,7 +1467,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -1490,7 +1487,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -1510,7 +1507,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1530,7 +1527,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -1550,7 +1547,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1570,7 +1567,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1590,7 +1587,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1610,7 +1607,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -1630,7 +1627,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -1650,7 +1647,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1670,7 +1667,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1690,7 +1687,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>6</v>
       </c>
@@ -1710,7 +1707,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -1730,7 +1727,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
@@ -1750,7 +1747,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
@@ -1770,7 +1767,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1790,7 +1787,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -1810,7 +1807,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -1830,7 +1827,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1850,7 +1847,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1870,7 +1867,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -1890,7 +1887,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>6</v>
       </c>
@@ -1910,7 +1907,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -1930,7 +1927,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
@@ -1950,7 +1947,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>6</v>
       </c>
@@ -1970,7 +1967,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -1990,7 +1987,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
@@ -2010,7 +2007,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -2030,7 +2027,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
@@ -2050,7 +2047,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
@@ -2070,7 +2067,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>6</v>
       </c>
@@ -2090,7 +2087,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>6</v>
       </c>
@@ -2110,7 +2107,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>6</v>
       </c>
@@ -2130,7 +2127,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -2150,7 +2147,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>6</v>
       </c>
@@ -2170,7 +2167,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>6</v>
       </c>
@@ -2190,7 +2187,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>6</v>
       </c>
@@ -2210,7 +2207,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>6</v>
       </c>
@@ -2230,7 +2227,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>6</v>
       </c>
@@ -2250,7 +2247,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>6</v>
       </c>
@@ -2270,7 +2267,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>6</v>
       </c>
@@ -2290,7 +2287,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>6</v>
       </c>
@@ -2310,7 +2307,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -2330,7 +2327,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>6</v>
       </c>
@@ -2350,7 +2347,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>6</v>
       </c>
@@ -2370,7 +2367,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -2390,7 +2387,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -2410,7 +2407,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -2430,7 +2427,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -2450,7 +2447,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -2470,7 +2467,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -2490,7 +2487,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -2510,7 +2507,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -2530,7 +2527,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -2550,7 +2547,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -2570,7 +2567,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -2590,7 +2587,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -2610,7 +2607,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -2630,7 +2627,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -2650,7 +2647,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -2670,7 +2667,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -2690,7 +2687,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -2710,7 +2707,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -2730,7 +2727,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -2750,7 +2747,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -2770,7 +2767,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -2790,7 +2787,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -2810,7 +2807,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -2830,7 +2827,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -2850,7 +2847,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -2870,7 +2867,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -2890,7 +2887,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -2910,7 +2907,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -2930,7 +2927,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -2950,7 +2947,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -2970,7 +2967,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>6</v>
       </c>
@@ -2990,7 +2987,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
@@ -3010,7 +3007,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
@@ -3030,7 +3027,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>6</v>
       </c>
@@ -3050,7 +3047,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>6</v>
       </c>
@@ -3070,7 +3067,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>6</v>
       </c>
@@ -3090,7 +3087,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>6</v>
       </c>
@@ -3110,7 +3107,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
@@ -3130,7 +3127,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>6</v>
       </c>
@@ -3150,7 +3147,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
@@ -3170,7 +3167,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>6</v>
       </c>
@@ -3190,7 +3187,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>6</v>
       </c>
@@ -3210,7 +3207,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>6</v>
       </c>
@@ -3230,7 +3227,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>6</v>
       </c>
@@ -3250,7 +3247,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>6</v>
       </c>
@@ -3270,7 +3267,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>6</v>
       </c>
@@ -3290,7 +3287,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>6</v>
       </c>
@@ -3310,7 +3307,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>6</v>
       </c>
@@ -3330,7 +3327,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>6</v>
       </c>
@@ -3350,7 +3347,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>6</v>
       </c>
@@ -3370,7 +3367,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>6</v>
       </c>
@@ -3390,7 +3387,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>6</v>
       </c>
@@ -3410,7 +3407,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>6</v>
       </c>
@@ -3430,7 +3427,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>6</v>
       </c>
@@ -3450,7 +3447,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>6</v>
       </c>
@@ -3470,7 +3467,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>6</v>
       </c>
@@ -3490,7 +3487,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>6</v>
       </c>
@@ -3510,7 +3507,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>6</v>
       </c>
@@ -3530,7 +3527,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>6</v>
       </c>
@@ -3550,7 +3547,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>6</v>
       </c>
@@ -3570,7 +3567,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>6</v>
       </c>
@@ -3590,7 +3587,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>6</v>
       </c>
@@ -3610,7 +3607,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>6</v>
       </c>
@@ -3630,7 +3627,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>6</v>
       </c>
@@ -3650,7 +3647,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>6</v>
       </c>
@@ -3670,7 +3667,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>6</v>
       </c>
@@ -3690,7 +3687,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>6</v>
       </c>
@@ -3710,7 +3707,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>6</v>
       </c>
@@ -3730,7 +3727,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>6</v>
       </c>
@@ -3750,7 +3747,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>6</v>
       </c>
@@ -3770,7 +3767,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>6</v>
       </c>
@@ -3790,7 +3787,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>6</v>
       </c>
@@ -3810,7 +3807,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>6</v>
       </c>
@@ -3830,7 +3827,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>6</v>
       </c>
@@ -3850,7 +3847,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>6</v>
       </c>
@@ -3870,7 +3867,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
@@ -3890,7 +3887,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>6</v>
       </c>
@@ -3910,12 +3907,12 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>141</v>
@@ -3930,12 +3927,12 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>142</v>
@@ -3950,12 +3947,12 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>143</v>
@@ -3970,7 +3967,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>6</v>
       </c>
@@ -3990,7 +3987,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>6</v>
       </c>
@@ -4010,7 +4007,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>6</v>
       </c>
@@ -4030,7 +4027,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>6</v>
       </c>
@@ -4050,7 +4047,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>6</v>
       </c>
@@ -4070,7 +4067,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>6</v>
       </c>
@@ -4090,7 +4087,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>6</v>
       </c>
@@ -4110,7 +4107,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>6</v>
       </c>
@@ -4130,7 +4127,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>6</v>
       </c>
@@ -4150,7 +4147,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>6</v>
       </c>
@@ -4170,7 +4167,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>6</v>
       </c>
@@ -4190,7 +4187,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>6</v>
       </c>
@@ -4210,7 +4207,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>6</v>
       </c>
@@ -4230,7 +4227,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>6</v>
       </c>
@@ -4250,7 +4247,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>6</v>
       </c>
@@ -4270,7 +4267,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>6</v>
       </c>
@@ -4290,7 +4287,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>6</v>
       </c>
@@ -4310,7 +4307,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>6</v>
       </c>
@@ -4330,7 +4327,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>6</v>
       </c>
@@ -4350,7 +4347,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>6</v>
       </c>
@@ -4370,7 +4367,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>6</v>
       </c>
@@ -4390,7 +4387,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>6</v>
       </c>
@@ -4410,7 +4407,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>6</v>
       </c>
@@ -4430,7 +4427,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>6</v>
       </c>
@@ -4450,7 +4447,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>6</v>
       </c>
@@ -4470,7 +4467,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>6</v>
       </c>
@@ -4490,7 +4487,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>6</v>
       </c>
@@ -4510,7 +4507,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>6</v>
       </c>
@@ -4530,7 +4527,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>6</v>
       </c>
@@ -4550,7 +4547,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>6</v>
       </c>
@@ -4570,7 +4567,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>6</v>
       </c>
@@ -4590,7 +4587,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>6</v>
       </c>
@@ -4630,7 +4627,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>6</v>
       </c>
@@ -4650,7 +4647,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>6</v>
       </c>
@@ -4670,7 +4667,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>6</v>
       </c>
@@ -4690,7 +4687,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>6</v>
       </c>
@@ -4710,7 +4707,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>6</v>
       </c>
@@ -4730,7 +4727,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>6</v>
       </c>
@@ -4750,7 +4747,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>6</v>
       </c>
@@ -4770,7 +4767,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>6</v>
       </c>
@@ -4790,7 +4787,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>6</v>
       </c>
@@ -4810,7 +4807,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>6</v>
       </c>
@@ -4830,7 +4827,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>6</v>
       </c>
@@ -4850,7 +4847,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>6</v>
       </c>
@@ -4870,7 +4867,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>6</v>
       </c>
@@ -4890,7 +4887,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>6</v>
       </c>
@@ -4910,7 +4907,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>6</v>
       </c>
@@ -4930,7 +4927,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>6</v>
       </c>
@@ -4950,7 +4947,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>6</v>
       </c>
@@ -4970,7 +4967,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>6</v>
       </c>
@@ -4990,7 +4987,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>6</v>
       </c>
@@ -5010,7 +5007,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>6</v>
       </c>
@@ -5030,7 +5027,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>6</v>
       </c>
@@ -5050,7 +5047,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>6</v>
       </c>
@@ -5070,7 +5067,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>6</v>
       </c>
@@ -5090,7 +5087,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>6</v>
       </c>
@@ -5110,7 +5107,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>6</v>
       </c>
@@ -5130,7 +5127,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>6</v>
       </c>
@@ -5150,7 +5147,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>6</v>
       </c>
@@ -5170,7 +5167,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>6</v>
       </c>
@@ -5190,7 +5187,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>6</v>
       </c>
@@ -5210,7 +5207,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>6</v>
       </c>
@@ -5230,7 +5227,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>6</v>
       </c>
@@ -5250,7 +5247,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>6</v>
       </c>
@@ -5270,7 +5267,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>6</v>
       </c>
@@ -5290,7 +5287,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>6</v>
       </c>
@@ -5310,7 +5307,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>6</v>
       </c>
@@ -5330,7 +5327,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>6</v>
       </c>
@@ -5350,7 +5347,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>6</v>
       </c>
@@ -5370,7 +5367,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>6</v>
       </c>
@@ -5390,7 +5387,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>6</v>
       </c>
@@ -5410,7 +5407,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>6</v>
       </c>
@@ -5430,7 +5427,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>6</v>
       </c>
@@ -5450,7 +5447,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>6</v>
       </c>
@@ -5470,12 +5467,12 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>218</v>
@@ -5490,12 +5487,12 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>219</v>
@@ -5510,7 +5507,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>6</v>
       </c>
@@ -5530,7 +5527,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>6</v>
       </c>
@@ -5550,7 +5547,7 @@
         <v>44226.996990740743</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>6</v>
       </c>
@@ -5570,7 +5567,7 @@
         <v>44226.996990740743</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>6</v>
       </c>
@@ -5590,7 +5587,7 @@
         <v>44226.996990740743</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>6</v>
       </c>
@@ -5610,7 +5607,7 @@
         <v>44226.988738425927</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>225</v>
       </c>
@@ -5630,7 +5627,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>225</v>
       </c>
@@ -5650,7 +5647,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
@@ -5670,7 +5667,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
@@ -5690,7 +5687,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>225</v>
       </c>
@@ -5710,7 +5707,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>225</v>
       </c>
@@ -5730,7 +5727,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>225</v>
       </c>
@@ -5750,7 +5747,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>225</v>
       </c>
@@ -5770,7 +5767,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>225</v>
       </c>
@@ -5790,7 +5787,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>225</v>
       </c>
@@ -5810,7 +5807,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>225</v>
       </c>
@@ -5830,7 +5827,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>225</v>
       </c>
@@ -5850,7 +5847,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>225</v>
       </c>
@@ -5870,7 +5867,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>225</v>
       </c>
@@ -5890,7 +5887,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>225</v>
       </c>
@@ -5910,7 +5907,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>225</v>
       </c>
@@ -5930,7 +5927,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>225</v>
       </c>
@@ -5950,7 +5947,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>225</v>
       </c>
@@ -5970,7 +5967,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>225</v>
       </c>
@@ -5990,7 +5987,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>225</v>
       </c>
@@ -6010,7 +6007,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>225</v>
       </c>
@@ -6030,7 +6027,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>225</v>
       </c>
@@ -6050,7 +6047,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>225</v>
       </c>
@@ -6070,7 +6067,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>225</v>
       </c>
@@ -6090,7 +6087,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>225</v>
       </c>
@@ -6110,7 +6107,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>225</v>
       </c>
@@ -6130,7 +6127,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>225</v>
       </c>
@@ -6150,7 +6147,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>225</v>
       </c>
@@ -6170,7 +6167,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>225</v>
       </c>
@@ -6190,7 +6187,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>225</v>
       </c>
@@ -6210,7 +6207,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>225</v>
       </c>
@@ -6230,7 +6227,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>225</v>
       </c>
@@ -6250,7 +6247,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>225</v>
       </c>
@@ -6270,7 +6267,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>225</v>
       </c>
@@ -6290,7 +6287,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>225</v>
       </c>
@@ -6310,7 +6307,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>225</v>
       </c>
@@ -6330,7 +6327,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>225</v>
       </c>
@@ -6350,7 +6347,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>225</v>
       </c>
@@ -6370,7 +6367,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>225</v>
       </c>
@@ -6390,7 +6387,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>225</v>
       </c>
@@ -6410,7 +6407,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>225</v>
       </c>
@@ -6430,7 +6427,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>225</v>
       </c>
@@ -6450,7 +6447,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>225</v>
       </c>
@@ -6470,7 +6467,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>225</v>
       </c>
@@ -6490,7 +6487,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>225</v>
       </c>
@@ -6510,7 +6507,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>225</v>
       </c>
@@ -6530,7 +6527,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>225</v>
       </c>
@@ -6550,7 +6547,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>225</v>
       </c>
@@ -6570,7 +6567,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>225</v>
       </c>
@@ -6590,7 +6587,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>225</v>
       </c>
@@ -6610,7 +6607,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>225</v>
       </c>
@@ -6630,7 +6627,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>225</v>
       </c>
@@ -6650,7 +6647,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>225</v>
       </c>
@@ -6670,7 +6667,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>225</v>
       </c>
@@ -6690,7 +6687,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>225</v>
       </c>
@@ -6710,7 +6707,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>225</v>
       </c>
@@ -6730,7 +6727,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>225</v>
       </c>
@@ -6750,7 +6747,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>225</v>
       </c>
@@ -6770,7 +6767,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>225</v>
       </c>
@@ -6790,7 +6787,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>225</v>
       </c>
@@ -6810,7 +6807,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>225</v>
       </c>
@@ -6830,7 +6827,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>225</v>
       </c>
@@ -6850,7 +6847,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>225</v>
       </c>
@@ -6870,7 +6867,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>225</v>
       </c>
@@ -6890,7 +6887,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>225</v>
       </c>
@@ -6910,7 +6907,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>225</v>
       </c>
@@ -6930,7 +6927,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>225</v>
       </c>
@@ -6950,7 +6947,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>225</v>
       </c>
@@ -6970,7 +6967,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>225</v>
       </c>
@@ -6990,7 +6987,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>225</v>
       </c>
@@ -7010,7 +7007,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>225</v>
       </c>
@@ -7030,7 +7027,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>225</v>
       </c>
@@ -7050,7 +7047,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>225</v>
       </c>
@@ -7070,7 +7067,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>225</v>
       </c>
@@ -7090,7 +7087,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>225</v>
       </c>
@@ -7110,7 +7107,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>225</v>
       </c>
@@ -7130,7 +7127,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>225</v>
       </c>
@@ -7150,7 +7147,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>225</v>
       </c>
@@ -7170,7 +7167,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>225</v>
       </c>
@@ -7190,7 +7187,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>225</v>
       </c>
@@ -7210,7 +7207,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>225</v>
       </c>
@@ -7230,7 +7227,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>225</v>
       </c>
@@ -7250,7 +7247,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>225</v>
       </c>
@@ -7270,7 +7267,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>225</v>
       </c>
@@ -7290,7 +7287,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>225</v>
       </c>
@@ -7310,7 +7307,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>225</v>
       </c>
@@ -7330,7 +7327,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>225</v>
       </c>
@@ -7350,7 +7347,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>225</v>
       </c>
@@ -7370,7 +7367,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>225</v>
       </c>
@@ -7390,7 +7387,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>225</v>
       </c>
@@ -7410,7 +7407,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>225</v>
       </c>
@@ -7430,7 +7427,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>225</v>
       </c>
@@ -7450,7 +7447,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>225</v>
       </c>
@@ -7470,7 +7467,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>225</v>
       </c>
@@ -7490,7 +7487,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>225</v>
       </c>
@@ -7510,7 +7507,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>225</v>
       </c>
@@ -7530,7 +7527,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>225</v>
       </c>
@@ -7550,7 +7547,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>225</v>
       </c>
@@ -7570,7 +7567,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>225</v>
       </c>
@@ -7590,7 +7587,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>225</v>
       </c>
@@ -7610,7 +7607,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>225</v>
       </c>
@@ -7630,7 +7627,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>225</v>
       </c>
@@ -7650,7 +7647,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>225</v>
       </c>
@@ -7670,7 +7667,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>225</v>
       </c>
@@ -7690,7 +7687,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>225</v>
       </c>
@@ -7710,7 +7707,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>225</v>
       </c>
@@ -7730,7 +7727,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>225</v>
       </c>
@@ -7750,7 +7747,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>225</v>
       </c>
@@ -7770,7 +7767,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>225</v>
       </c>
@@ -7790,7 +7787,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>225</v>
       </c>
@@ -7810,7 +7807,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>225</v>
       </c>
@@ -7830,7 +7827,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>225</v>
       </c>
@@ -7850,7 +7847,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>225</v>
       </c>
@@ -7870,7 +7867,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>225</v>
       </c>
@@ -7890,7 +7887,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>225</v>
       </c>
@@ -7910,7 +7907,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>225</v>
       </c>
@@ -7930,7 +7927,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>225</v>
       </c>
@@ -7950,7 +7947,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>225</v>
       </c>
@@ -7970,7 +7967,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>225</v>
       </c>
@@ -7990,7 +7987,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>225</v>
       </c>
@@ -8010,7 +8007,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>225</v>
       </c>
@@ -8030,7 +8027,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>225</v>
       </c>
@@ -8050,7 +8047,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>225</v>
       </c>
@@ -8070,7 +8067,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>225</v>
       </c>
@@ -8090,7 +8087,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>225</v>
       </c>
@@ -8110,7 +8107,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>225</v>
       </c>
@@ -8130,7 +8127,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>225</v>
       </c>
@@ -8150,7 +8147,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>225</v>
       </c>
@@ -8170,7 +8167,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>225</v>
       </c>
@@ -8190,7 +8187,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>225</v>
       </c>
@@ -8210,7 +8207,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>225</v>
       </c>
@@ -8230,7 +8227,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>225</v>
       </c>
@@ -8250,7 +8247,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>225</v>
       </c>
@@ -8270,7 +8267,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>225</v>
       </c>
@@ -8290,7 +8287,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>225</v>
       </c>
@@ -8310,7 +8307,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>225</v>
       </c>
@@ -8330,7 +8327,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>225</v>
       </c>
@@ -8350,12 +8347,12 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>141</v>
@@ -8370,12 +8367,12 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>142</v>
@@ -8390,12 +8387,12 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>143</v>
@@ -8410,7 +8407,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>225</v>
       </c>
@@ -8430,7 +8427,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>225</v>
       </c>
@@ -8450,7 +8447,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>225</v>
       </c>
@@ -8470,7 +8467,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>225</v>
       </c>
@@ -8490,7 +8487,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>225</v>
       </c>
@@ -8510,7 +8507,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>225</v>
       </c>
@@ -8530,7 +8527,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>225</v>
       </c>
@@ -8550,7 +8547,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>225</v>
       </c>
@@ -8570,7 +8567,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>225</v>
       </c>
@@ -8590,7 +8587,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>225</v>
       </c>
@@ -8610,7 +8607,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>225</v>
       </c>
@@ -8630,7 +8627,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>225</v>
       </c>
@@ -8650,7 +8647,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>225</v>
       </c>
@@ -8670,7 +8667,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>225</v>
       </c>
@@ -8690,7 +8687,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>225</v>
       </c>
@@ -8710,7 +8707,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>225</v>
       </c>
@@ -8730,7 +8727,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>225</v>
       </c>
@@ -8750,7 +8747,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>225</v>
       </c>
@@ -8770,7 +8767,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>225</v>
       </c>
@@ -8790,7 +8787,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>225</v>
       </c>
@@ -8810,7 +8807,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>225</v>
       </c>
@@ -8830,7 +8827,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>225</v>
       </c>
@@ -8850,7 +8847,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>225</v>
       </c>
@@ -8870,7 +8867,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>225</v>
       </c>
@@ -8890,7 +8887,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>225</v>
       </c>
@@ -8910,7 +8907,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>225</v>
       </c>
@@ -8930,7 +8927,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>225</v>
       </c>
@@ -8950,7 +8947,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>225</v>
       </c>
@@ -8970,7 +8967,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>225</v>
       </c>
@@ -8990,7 +8987,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>225</v>
       </c>
@@ -9010,7 +9007,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>225</v>
       </c>
@@ -9030,7 +9027,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>225</v>
       </c>
@@ -9070,7 +9067,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>225</v>
       </c>
@@ -9090,7 +9087,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>225</v>
       </c>
@@ -9110,7 +9107,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>225</v>
       </c>
@@ -9130,7 +9127,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>225</v>
       </c>
@@ -9150,7 +9147,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="401" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>225</v>
       </c>
@@ -9170,7 +9167,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>225</v>
       </c>
@@ -9190,7 +9187,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="403" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>225</v>
       </c>
@@ -9210,7 +9207,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="404" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>225</v>
       </c>
@@ -9230,7 +9227,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="405" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>225</v>
       </c>
@@ -9250,7 +9247,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="406" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>225</v>
       </c>
@@ -9270,7 +9267,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>225</v>
       </c>
@@ -9290,7 +9287,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>225</v>
       </c>
@@ -9310,7 +9307,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>225</v>
       </c>
@@ -9330,7 +9327,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>225</v>
       </c>
@@ -9350,7 +9347,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>225</v>
       </c>
@@ -9370,7 +9367,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>225</v>
       </c>
@@ -9390,7 +9387,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>225</v>
       </c>
@@ -9410,7 +9407,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>225</v>
       </c>
@@ -9430,7 +9427,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>225</v>
       </c>
@@ -9450,7 +9447,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>225</v>
       </c>
@@ -9470,7 +9467,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>225</v>
       </c>
@@ -9490,7 +9487,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>225</v>
       </c>
@@ -9510,7 +9507,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>225</v>
       </c>
@@ -9530,7 +9527,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>225</v>
       </c>
@@ -9550,7 +9547,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="421" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>225</v>
       </c>
@@ -9570,7 +9567,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="422" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>225</v>
       </c>
@@ -9590,7 +9587,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="423" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>225</v>
       </c>
@@ -9610,7 +9607,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>225</v>
       </c>
@@ -9630,7 +9627,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>225</v>
       </c>
@@ -9650,7 +9647,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="426" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>225</v>
       </c>
@@ -9670,7 +9667,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="427" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>225</v>
       </c>
@@ -9690,7 +9687,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>225</v>
       </c>
@@ -9710,7 +9707,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>225</v>
       </c>
@@ -9730,7 +9727,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>225</v>
       </c>
@@ -9750,7 +9747,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>225</v>
       </c>
@@ -9770,7 +9767,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>225</v>
       </c>
@@ -9790,7 +9787,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>225</v>
       </c>
@@ -9810,7 +9807,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="434" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>225</v>
       </c>
@@ -9830,7 +9827,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>225</v>
       </c>
@@ -9850,7 +9847,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>225</v>
       </c>
@@ -9870,7 +9867,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="437" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>225</v>
       </c>
@@ -9890,7 +9887,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>225</v>
       </c>
@@ -9910,12 +9907,12 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>218</v>
@@ -9930,12 +9927,12 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>219</v>
@@ -9950,7 +9947,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>225</v>
       </c>
@@ -9970,7 +9967,7 @@
         <v>44255.16914351852</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>225</v>
       </c>
@@ -9990,7 +9987,7 @@
         <v>44255.179965277777</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>225</v>
       </c>
@@ -10010,7 +10007,7 @@
         <v>44255.179976851854</v>
       </c>
     </row>
-    <row r="444" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>225</v>
       </c>
@@ -10030,7 +10027,7 @@
         <v>44255.179976851854</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>225</v>
       </c>
@@ -10050,7 +10047,7 @@
         <v>44255.179965277777</v>
       </c>
     </row>
-    <row r="446" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>225</v>
       </c>
@@ -10070,7 +10067,7 @@
         <v>44255.179965277777</v>
       </c>
     </row>
-    <row r="447" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>225</v>
       </c>
